--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,39 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BCIOR:000009</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>serves behaviour function</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>realizes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Realizes the human life function of an individual human behaviour. </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,6 +1300,39 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BCIO:100000</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>has behavioural goal</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">causally influenced by </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Causally influenced by a cognitive representation of something the behaviour could bring about.  </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">individual human behaviour  </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,6 +1333,39 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BICOR:000010</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">causally influences </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Causally influences by a behaviour bringing into existence, causing to occur, destroying, preventing from occurring, or changing an entity.   </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">individual human behaviour  </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">entity </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,273 +466,341 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002506</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>has part</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>has part [BFO:0000051]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>A core relation that holds between a whole and its part</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>causal relation between entities</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>causally related to [RO:0002410]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>RO:0002559</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>causally influenced by</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>causal relation between entities [RO:0002506]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>behaviour intention</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>inheres in [RO:0000052]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>comparatively evaluates</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>A relation that holds between a comparative evaluation study and two or more scenarios that are being compared</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BCIOR:000007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>has process attribute</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>has profile [BFO:0000119]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>difference between</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>A relation that holds between an effect estimate and two outcome estimates</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>effect estimate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>outcome estimate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>RO:0002229</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>ends</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>inverse of ends with</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BCIOR:000005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>evaluates</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>RO:0002092</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>happens during</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BCIOR:000004</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>has BCI context</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>behaviour change intervention context</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>has BCI source</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BCIOR:000009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
-        </is>
-      </c>
+          <t>has abstinence period</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has attribute</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -741,120 +809,141 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BCIOR:000010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
+          <t>has behavioural attribute</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>has behavioural companion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>has behavioural goal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">causally influenced by [RO:0002559]
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has behavioural target</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -865,333 +954,281 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>research study investigator</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIOR:000003</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has BCI source</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIOR:000004</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has BCI context</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has output</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>has output [RO:0002234]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>behaviour change intervention context</t>
-        </is>
-      </c>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIOR:000005</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>evaluates</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has part</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>has part [BFO:0000051]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>A core relation that holds between a whole and its part</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIOR:000006</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>comparatively evaluates</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has process attribute</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>has profile [BFO:0000119]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation that holds between a comparative evaluation study and two or more scenarios that are being compared</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of process_profile_of</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000007</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>difference between</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation that holds between an effect estimate and two outcome estimates</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>effect estimate</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>outcome estimate</t>
-        </is>
-      </c>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RO:0002092</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>happens during</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>happens during [RO:0002092]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>research study investigator</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>has study sample</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t>A relation that holds between a study and the study sample for that study</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mechanism of action</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0002229</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ends</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inheres in [RO:0000052]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inverse of ends with</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
+          <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
+          <t>is enacted by</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1201,275 +1238,242 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>occurs in</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>inverse of has_process_profile</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0002559</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>causally influenced by</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>behaviour intention</t>
-        </is>
-      </c>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0002506</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>causal relation between entities</t>
+          <t>occupies temporal region</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>causally related to [RO:0002410]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>exists at [BFO:0000108]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>temporal interval</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>Inverse of has output relation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
-        </is>
-      </c>
+          <t>participates in</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">causally influenced by [RO:0002559]
-</t>
-        </is>
-      </c>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
+          <t>Inverse of realizes relation.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
-        </is>
-      </c>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>is enacted by</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1479,63 +1483,47 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>some</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>starts</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1545,40 +1533,69 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>mechanism of action</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BCIOR:000015</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>person</t>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>material entity</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,60 +1540,85 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIO:000018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>realies [BFO:0000055]</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>mechanism of action</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>mechanism of action</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1540,7 +1540,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:000018</t>
+          <t>BCIO:00018R</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1540,7 +1540,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:00018R</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -764,26 +764,14 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>behaviour intention</t>
+          <t>behavioural intention</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>effect estimate</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>outcome estimate</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
     </row>
@@ -866,11 +866,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>animal</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -966,11 +962,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1119,16 +1111,8 @@
           <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>research study investigator</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1152,16 +1136,8 @@
           <t>A relation that holds between a study and the study sample for that study</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>research study sample</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1240,11 +1216,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -515,11 +515,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>behavioural intention</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1295,11 +1291,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1490,11 +1482,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1547,11 +1535,7 @@
           <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>mechanism of action</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>entity</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -829,11 +829,7 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,77 +751,73 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>BCIOR:000010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
-        </is>
-      </c>
+          <t>has behavioural attribute</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
+          <t>has behavioural companion</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -834,23 +830,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>has behavioural goal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t xml:space="preserve">causally influenced by [RO:0002559]
+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -858,29 +855,32 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">causally influenced by [RO:0002559]
-</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -890,30 +890,30 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
+          <t>has behavioural target</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>causal relation between entities [RO:0002506]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -921,61 +921,53 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has disposition</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -984,23 +976,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1009,23 +1001,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1034,23 +1026,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has process part</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1059,23 +1051,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1084,12 +1076,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has study sample</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1100,7 +1092,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1109,23 +1101,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1134,23 +1126,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is about</t>
+          <t>is attribute of</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1159,77 +1151,77 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>inverse of has_process_profile</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
+          <t>located in</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1238,48 +1230,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1287,115 +1279,115 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occurs in</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of has output relation</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
-        </is>
-      </c>
+          <t>participates in</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1404,23 +1396,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>realises</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1429,48 +1421,52 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>serves behavioural function</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>realises [BFO:0000055]</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>Realises the human life function of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
+          <t>starts</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>realises [BFO:0000055]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1478,94 +1474,65 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIOR:000015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,11 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>behaviour intention</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,12 +578,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>behaviour change intervention effect estimate</t>
+          <t>effect estimate</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate</t>
+          <t>outcome estimate</t>
         </is>
       </c>
     </row>
@@ -751,73 +755,77 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>BCIOR:000009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>has abstinence period</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>BCIOR:000010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>has behavioural attribute</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -825,95 +833,99 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has behavioural companion</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BCIOR:000012</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>has behavioural goal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
           <t xml:space="preserve">causally influenced by [RO:0002559]
 </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>cognitive representation</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BCIOR:000013</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -921,53 +933,65 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>has behavioural target</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has disposition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -976,23 +1000,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1001,23 +1025,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1026,23 +1050,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1051,23 +1075,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1076,12 +1100,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has study investigator</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1092,57 +1116,73 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>A relation that holds between a study and the study investigator for that study</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>research study investigator</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is attribute of</t>
+          <t>is about</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1151,77 +1191,81 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>is process attribute of</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1230,48 +1274,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
-        </is>
-      </c>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1281,113 +1325,117 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>temporal interval</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
+          <t>occurs in</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
-        </is>
-      </c>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of has output relation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1396,23 +1444,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1421,52 +1469,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
-        </is>
-      </c>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1476,63 +1520,100 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>starts</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>mechanism of action</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
